--- a/data/trans_camb/P25_10-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_10-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,15</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-2,69</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10,2</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 7,75</t>
+          <t>-3,92; 10,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 4,02</t>
+          <t>-7,63; 4,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 6,95</t>
+          <t>-1,74; 17,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 4,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 4,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 2,01</t>
+          <t>-14,01; 5,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 4,37</t>
+          <t>-13,68; 5,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 2,91</t>
+          <t>-2,33; 21,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 2,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,72; 6,14</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-9,04; 4,08</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 18,93</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,71%</t>
+          <t>-11,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>98,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,64%</t>
+          <t>-11,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,62%</t>
+          <t>-10,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,26%</t>
+          <t>26,12%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-12,6%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-2,51%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-11,05%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>41,94%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 141,35</t>
+          <t>-32,31; 235,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,1; 76,62</t>
+          <t>-58,52; 83,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 129,06</t>
+          <t>-13,91; 339,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 15,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,71; 13,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,53; 7,2</t>
+          <t>-32,71; 17,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,63; 20,72</t>
+          <t>-31,91; 17,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 14,71</t>
+          <t>-5,35; 71,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 13,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-26,78; 32,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-31,27; 21,11</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,05; 96,55</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,7</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,61</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-2,97</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,84</t>
+          <t>-3,49; 4,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,21</t>
+          <t>-2,68; 4,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 4,19</t>
+          <t>-2,35; 5,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,88; -2,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,47; -0,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,89; -2,16</t>
+          <t>-12,83; -1,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,18; -1,06</t>
+          <t>-11,4; 0,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 0,78</t>
+          <t>-4,2; 9,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; -0,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,08; 0,29</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-7,01; 0,4</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 5,8</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,85%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-21,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,25%</t>
+          <t>-26,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-24,86%</t>
+          <t>-22,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,02%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-20,72%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-21,87%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-18,01%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>10,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,66; 69,51</t>
+          <t>-44,1; 97,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 117,11</t>
+          <t>-33,2; 106,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 93,16</t>
+          <t>-30,38; 125,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-42,3; -12,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,74; -4,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,01; -9,12</t>
+          <t>-43,57; -5,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,79; -7,48</t>
+          <t>-37,84; 0,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,03; 5,58</t>
+          <t>-14,32; 43,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-36,89; -2,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-37,95; 2,84</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-36,4; 3,48</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-12,19; 40,74</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-3,08</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 3,45</t>
+          <t>-3,79; 2,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 3,77</t>
+          <t>-3,15; 3,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,59</t>
+          <t>-2,2; 5,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 2,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,16; -0,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,0; -1,32</t>
+          <t>-9,05; 2,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,1</t>
+          <t>-11,53; -1,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,94</t>
+          <t>-5,98; 6,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -0,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 1,48</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,77; -0,23</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 4,85</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>-11,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-33,08%</t>
+          <t>25,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-24,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-36,69%</t>
+          <t>-16,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-7,0%</t>
+          <t>-30,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-33,59%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-14,48%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-23,91%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>6,57%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,04; 119,48</t>
+          <t>-54,34; 84,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,79; 124,1</t>
+          <t>-47,39; 103,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-74,34; 59,49</t>
+          <t>-34,58; 156,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 14,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,84; -0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,79; -8,38</t>
+          <t>-37,6; 13,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,0; 21,77</t>
+          <t>-47,52; -5,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,23; 9,91</t>
+          <t>-25,52; 39,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,49; -7,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-38,18; 13,37</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-43,82; -0,91</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-17,93; 45,3</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-4,05</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,73</t>
+          <t>-4,52; 2,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,35</t>
+          <t>-1,62; 6,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,73; -1,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,77; -1,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,71; -1,6</t>
+          <t>-11,49; -0,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 0,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,25</t>
+          <t>-3,49; 9,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 0,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-7,38; -0,71</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 6,33</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>-25,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>22,35%</t>
+          <t>35,95%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-17,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,24%</t>
+          <t>-23,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-11,69%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-12,9%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-26,04%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 54,66</t>
+          <t>-60,15; 48,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 66,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 69,66</t>
+          <t>-19,84; 123,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,23; -5,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,14; -5,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,54; -6,41</t>
+          <t>-41,75; -0,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 0,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 1,68</t>
+          <t>-13,52; 40,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,73; 0,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-43,97; -4,73</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-9,27; 44,41</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-4,68</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-4,2</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-2,31</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,99</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,84; 2,2</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 2,31</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 4,83</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-7,85; -1,43</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,69; -1,03</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 7,36</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; -0,24</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 0,23</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 5,65</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>40,8%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-18,16%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-16,29%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-14,26%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-12,31%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>20,26%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-25,71; 44,18</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-24,18; 43,52</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>6,4; 88,26</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-28,51; -6,2</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-28,08; -4,51</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 31,31</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-24,88; -1,68</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-22,53; 1,52</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 37,7</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
